--- a/MB.xlsx
+++ b/MB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="UserUpdateHistory" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>Bug Report</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>dealer is logged into the system.</t>
   </si>
   <si>
     <t>1)Enter URL
@@ -183,24 +180,9 @@
     <t>admin Updated the Users details</t>
   </si>
   <si>
-    <t>as expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify by changing the data if data is updated </t>
-  </si>
-  <si>
-    <t>admin is save the details with updating tha data on mandatory fields.</t>
-  </si>
-  <si>
-    <t>select any  User name(sak123) and click on Edit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Users details page Displays </t>
   </si>
   <si>
-    <t>There is a mistake of mobile number filed, mobile number accepting more than 10 digits and also less than 10 digits.</t>
-  </si>
-  <si>
     <t>TC_1</t>
   </si>
   <si>
@@ -211,13 +193,6 @@
   </si>
   <si>
     <t>TC_4</t>
-  </si>
-  <si>
-    <t>1)username= sak1234
-2) first name= sashi
-3)last name=Tiwari
-4) email= sak1234@gmail.com
-and hit on Save Button</t>
   </si>
   <si>
     <t>Accepting less than and also more than 10 digits of mobile</t>
@@ -242,9 +217,6 @@
     <t>new</t>
   </si>
   <si>
-    <t>Vaishali</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 digit of Mobile number accepted </t>
   </si>
   <si>
@@ -267,31 +239,9 @@
     <t>Suggestion</t>
   </si>
   <si>
-    <t>Issue Certified Warranty</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Email :   from sak123@gmail.com  To sak1234@gmail.com
-User Name :   from sak123  To sak1234
-Mobile :   from 73444444444444444  To 23456
-Nissan RSA Administrator Updated 1 days ago
-Default Call Duration :   from 5  To 10
-Account Owner :   from 1  To 0
-Admin :   from on  To off
-Mobile :   from 9840516229  To 23456234567566
-Nissan RSA Administrator Updated 1 days ago
-Account Owner :   from 0  To 1
-Admin :   from off  To on
-First Name :   from Hyder  To sakshi
-Last Name :   from Abbas  To tiwari
-Email :   from hyder.abbas@tvs.in  To sak123@gmail.com
-User Name :   from Hyder Abbas  To sak123
-</t>
-  </si>
-  <si>
     <t>Ishu</t>
   </si>
   <si>
@@ -299,9 +249,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Lead Dev: Ishu/ Vaishali</t>
   </si>
   <si>
     <t>Bug ID_1</t>
@@ -315,17 +262,78 @@
 3)Pwd=Welcome@123</t>
   </si>
   <si>
-    <t>19.10.2020</t>
-  </si>
-  <si>
     <t>MB</t>
+  </si>
+  <si>
+    <t>26.10.2020</t>
+  </si>
+  <si>
+    <t>26.10.2021</t>
+  </si>
+  <si>
+    <t>26.10.2022</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>Mercedes Administrator Updated 24 minutes ago
+GSTIN :   from qqqqqqqqqqqqqqqqqqqqqqqqqqqq  To 1123456
+CIN No :   from qqqqqqqqqqqqqqqqqqqqqqqq  To 1123456
+Region :   from Select an Option  To East
+Street Address :   from test  To testing area</t>
+  </si>
+  <si>
+    <t>GSTIN :   from qqqqqqqqqqqqqqqqqqqqqqqqqqqq  To 1123456 
+CIN No :   from qqqqqqqqqqqqqqqqqqqqqqqq  To 1123456
+and hit on Save Button 
+Click on Update History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selecting  Demo-deaaler User Name  and click on Edit </t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>admin  saved  the details with updating tha data on mandatory fields.</t>
+  </si>
+  <si>
+    <t>verify by changing the data if data is updated History</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin is already logged</t>
+  </si>
+  <si>
+    <t>admin is logged into the system.</t>
+  </si>
+  <si>
+    <t>Admin is logged into the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asterisk missing in first name </t>
+  </si>
+  <si>
+    <t>First name should reflect with asterisk</t>
+  </si>
+  <si>
+    <t>Asterisk missing in first name</t>
+  </si>
+  <si>
+    <t>Admin is logged into the system</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Lead Dev: Ishu/ Vikash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,8 +377,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,18 +611,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +676,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,14 +795,14 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>1438275</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>2771775</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -752,14 +847,14 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>2943225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>3657600</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1066,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,35 +1177,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="A1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1124,43 +1219,43 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="30" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1212,170 +1307,188 @@
     </row>
     <row r="6" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="23">
         <v>12673</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" s="23">
         <v>12673</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>86</v>
+      <c r="C7" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B8" s="23">
         <v>12673</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>86</v>
+      <c r="C8" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="F8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
-        <v>51</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="54"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B9" s="23">
         <v>12673</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>86</v>
+      <c r="C9" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>56</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="A10" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="59">
+        <v>12673</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1384,23 +1497,23 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1513,7 +1626,9 @@
       <c r="M19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
@@ -1545,7 +1660,7 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>3209925</xdr:rowOff>
+                <xdr:rowOff>3219450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1561,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,49 +1700,49 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="40"/>
+      <c r="E2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="41"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -1638,11 +1753,11 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="10"/>
       <c r="E3" s="9" t="s">
         <v>4</v>
@@ -1652,11 +1767,11 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="28">
+      <c r="L3" s="44"/>
+      <c r="M3" s="27">
         <v>12673</v>
       </c>
       <c r="N3" s="9"/>
@@ -1727,51 +1842,97 @@
       </c>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>44119</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="28">
+    <row r="5" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>44130</v>
+      </c>
+      <c r="B5" s="18">
         <v>12673</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="C5" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="29">
+        <v>12673</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>44130</v>
+      </c>
+      <c r="B6" s="18">
+        <v>12673</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="29">
+        <v>12673</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="K6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1795,14 +1956,14 @@
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>1438275</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>2771775</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1820,14 +1981,14 @@
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>2943225</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>1057275</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>3657600</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1846,7 +2007,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,78 +2021,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B4" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="17">
         <v>3</v>
       </c>
       <c r="E4" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" s="16">
         <v>4</v>
       </c>
       <c r="C5" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="17">
         <v>3</v>
       </c>
       <c r="E5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4"/>
     </row>
